--- a/Input_AE4424_Ass1P1.xlsx
+++ b/Input_AE4424_Ass1P1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brams\Desktop\Network scheduling\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brams\Desktop\Network scheduling\Code\NS_1718\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="23">
   <si>
     <t>Arc</t>
   </si>
@@ -465,7 +465,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -998,514 +998,214 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="1">
-        <v>10</v>
-      </c>
-      <c r="E32" s="1">
-        <v>5</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="1">
-        <v>7</v>
-      </c>
-      <c r="E33" s="1">
-        <v>5</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="1">
-        <v>15</v>
-      </c>
-      <c r="E34" s="1">
-        <v>2</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="1">
-        <v>13</v>
-      </c>
-      <c r="E35" s="1">
-        <v>3</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1">
-        <v>18</v>
-      </c>
-      <c r="E36" s="1">
-        <v>4</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="1">
-        <v>12</v>
-      </c>
-      <c r="E37" s="1">
-        <v>8</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="1">
-        <v>20</v>
-      </c>
-      <c r="E38" s="1">
-        <v>4</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="1">
-        <v>17</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="1">
-        <v>15</v>
-      </c>
-      <c r="E40" s="1">
-        <v>2</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="1">
-        <v>19</v>
-      </c>
-      <c r="E41" s="1">
-        <v>8</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="1">
-        <v>17</v>
-      </c>
-      <c r="E42" s="1">
-        <v>6</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="1">
-        <v>3</v>
-      </c>
-      <c r="E43" s="1">
-        <v>10</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="1">
-        <v>10</v>
-      </c>
-      <c r="E44" s="1">
-        <v>10</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="1">
-        <v>4</v>
-      </c>
-      <c r="E45" s="1">
-        <v>8</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="1">
-        <v>9</v>
-      </c>
-      <c r="E46" s="1">
-        <v>12</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="1">
-        <v>10</v>
-      </c>
-      <c r="E47" s="1">
-        <v>5</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="1">
-        <v>13</v>
-      </c>
-      <c r="E48" s="1">
-        <v>10</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="1">
-        <v>22</v>
-      </c>
-      <c r="E49" s="1">
-        <v>5</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="1">
-        <v>25</v>
-      </c>
-      <c r="E50" s="1">
-        <v>3</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="1">
-        <v>8</v>
-      </c>
-      <c r="E51" s="1">
-        <v>5</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="1">
-        <v>12</v>
-      </c>
-      <c r="E52" s="1">
-        <v>5</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="1">
-        <v>11</v>
-      </c>
-      <c r="E53" s="1">
-        <v>14</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="1">
-        <v>13</v>
-      </c>
-      <c r="E54" s="1">
-        <v>4</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="1">
-        <v>12</v>
-      </c>
-      <c r="E55" s="1">
-        <v>8</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="1">
-        <v>9</v>
-      </c>
-      <c r="E56" s="1">
-        <v>10</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="1">
-        <v>10</v>
-      </c>
-      <c r="E57" s="1">
-        <v>5</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="1">
-        <v>6</v>
-      </c>
-      <c r="E58" s="1">
-        <v>8</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="1">
-        <v>3</v>
-      </c>
-      <c r="E59" s="1">
-        <v>7</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="1">
-        <v>5</v>
-      </c>
-      <c r="E60" s="1">
-        <v>10</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="1">
-        <v>4</v>
-      </c>
-      <c r="E61" s="1">
-        <v>5</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
